--- a/data/data_origin/TripAdvisor_split_sample/TripAdvisor_hotel_neutral.xlsx
+++ b/data/data_origin/TripAdvisor_split_sample/TripAdvisor_hotel_neutral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivianli/PhD/TripAdvisor-hotel-aspect-level-sentiment-analysis/data/data_origin/TripAdvisor_split_sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qunyang/Dropbox (Personal)/Vivian/TripAdvisor hotel aspect-level sentiment analysis/data/data_origin/TripAdvisor_split_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D15A1-6269-524A-BDF3-FA260BB66DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417A80A6-10B1-474A-AAA6-EF4C83AA7DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="460" windowWidth="24540" windowHeight="14140" xr2:uid="{9E0A0B0E-2ED6-FA49-886D-98DDF8173574}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="24000" windowHeight="37940" xr2:uid="{9E0A0B0E-2ED6-FA49-886D-98DDF8173574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7290,18 +7290,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7316,7 +7316,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7374,7 +7374,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7390,7 +7390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7688,13 +7688,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E798A-0E36-B94E-ADD4-A6B70CAE4C62}">
   <dimension ref="A1:P940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="C932" sqref="C932"/>
+    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
+      <selection activeCell="K3590" sqref="K3590"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="74.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7722,7 +7725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7798,7 +7801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -7962,7 +7965,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="187">
+    <row r="18" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="204">
+    <row r="20" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -8046,7 +8049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="409.6">
+    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -8114,7 +8117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -8235,7 +8238,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -8263,7 +8266,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -8300,7 +8303,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="204">
+    <row r="39" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -8402,7 +8405,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="255">
+    <row r="44" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="85">
+    <row r="46" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -8447,7 +8450,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="255">
+    <row r="47" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
@@ -8490,7 +8493,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -8520,7 +8523,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="255">
+    <row r="50" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>150</v>
       </c>
@@ -8566,7 +8569,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="306">
+    <row r="52" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="238">
+    <row r="53" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>157</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -8623,7 +8626,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -8651,7 +8654,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>174</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
@@ -8705,7 +8708,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
@@ -8731,7 +8734,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="388">
+    <row r="60" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>178</v>
       </c>
@@ -8757,7 +8760,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="409.6">
+    <row r="61" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
@@ -8807,7 +8810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>199</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -8841,7 +8844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -8858,7 +8861,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>205</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>209</v>
       </c>
@@ -8889,7 +8892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="204">
+    <row r="69" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="221">
+    <row r="71" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>220</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="272">
+    <row r="72" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>224</v>
       </c>
@@ -8990,7 +8993,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="238">
+    <row r="73" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>226</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="238">
+    <row r="75" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>231</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="204">
+    <row r="76" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>231</v>
       </c>
@@ -9052,7 +9055,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>235</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>237</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="221">
+    <row r="79" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>239</v>
       </c>
@@ -9111,7 +9114,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="255">
+    <row r="80" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="289">
+    <row r="81" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>253</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>255</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>255</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="289">
+    <row r="85" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="340">
+    <row r="87" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>268</v>
       </c>
@@ -9277,7 +9280,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>268</v>
       </c>
@@ -9301,7 +9304,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>279</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>282</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>284</v>
       </c>
@@ -9351,7 +9354,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>287</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="323">
+    <row r="93" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>290</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="187">
+    <row r="94" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>292</v>
       </c>
@@ -9402,7 +9405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>296</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>296</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="289">
+    <row r="97" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>301</v>
       </c>
@@ -9456,7 +9459,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="409.6">
+    <row r="98" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>306</v>
       </c>
@@ -9491,7 +9494,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>313</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="221">
+    <row r="100" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>313</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="272">
+    <row r="101" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>313</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>319</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>323</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>323</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="238">
+    <row r="105" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>327</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>329</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>333</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="356">
+    <row r="108" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -9658,7 +9661,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="187">
+    <row r="109" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>340</v>
       </c>
@@ -9682,7 +9685,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>344</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="153">
+    <row r="111" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>344</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>344</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="238">
+    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>344</v>
       </c>
@@ -9753,7 +9756,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="170">
+    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>355</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="356">
+    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>355</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="221">
+    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>361</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="306">
+    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>361</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>366</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>369</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="170">
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>371</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>373</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>373</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="255">
+    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>377</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>381</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>383</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="85">
+    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>385</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="51">
+    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="204">
+    <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>385</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="187">
+    <row r="129" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>385</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="68">
+    <row r="130" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>385</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="136">
+    <row r="131" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>396</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="272">
+    <row r="132" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>396</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="153">
+    <row r="133" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="136">
+    <row r="134" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>401</v>
       </c>
@@ -10101,7 +10104,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="153">
+    <row r="135" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>406</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="68">
+    <row r="136" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -10129,7 +10132,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="102">
+    <row r="137" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>409</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="238">
+    <row r="138" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>412</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="272">
+    <row r="139" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>415</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="388">
+    <row r="140" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>418</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="255">
+    <row r="141" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -10211,7 +10214,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="85">
+    <row r="142" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>421</v>
       </c>
@@ -10225,7 +10228,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="289">
+    <row r="143" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>427</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="102">
+    <row r="144" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -10253,7 +10256,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="221">
+    <row r="145" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>433</v>
       </c>
@@ -10267,7 +10270,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="85">
+    <row r="146" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>435</v>
       </c>
@@ -10281,7 +10284,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="136">
+    <row r="147" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>437</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="136">
+    <row r="148" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>437</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="68">
+    <row r="149" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>437</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="221">
+    <row r="150" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>437</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="170">
+    <row r="151" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>448</v>
       </c>
@@ -10366,7 +10369,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="170">
+    <row r="152" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="187">
+    <row r="153" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="153">
+    <row r="154" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>454</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="119">
+    <row r="155" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>456</v>
       </c>
@@ -10428,7 +10431,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="221">
+    <row r="156" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>456</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="51">
+    <row r="157" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>460</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="187">
+    <row r="158" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>460</v>
       </c>
@@ -10480,7 +10483,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" ht="102">
+    <row r="159" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>460</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="204">
+    <row r="160" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>467</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="170">
+    <row r="161" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>471</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="102">
+    <row r="162" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>473</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="221">
+    <row r="163" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>473</v>
       </c>
@@ -10562,7 +10565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="153">
+    <row r="164" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>473</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="119">
+    <row r="165" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>473</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="204">
+    <row r="166" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>479</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="204">
+    <row r="167" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>481</v>
       </c>
@@ -10621,7 +10624,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="221">
+    <row r="168" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>484</v>
       </c>
@@ -10638,7 +10641,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="272">
+    <row r="169" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>484</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="85">
+    <row r="170" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="68">
+    <row r="171" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>484</v>
       </c>
@@ -10686,7 +10689,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="102">
+    <row r="172" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>493</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="221">
+    <row r="173" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>495</v>
       </c>
@@ -10722,7 +10725,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>498</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>500</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>500</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>504</v>
       </c>
@@ -10784,7 +10787,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>504</v>
       </c>
@@ -10798,7 +10801,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>507</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>507</v>
       </c>
@@ -10826,7 +10829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="187">
+    <row r="181" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>510</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>513</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>516</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>516</v>
       </c>
@@ -10885,7 +10888,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>516</v>
       </c>
@@ -10902,7 +10905,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>516</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>516</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="388">
+    <row r="188" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>524</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="204">
+    <row r="189" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>526</v>
       </c>
@@ -10970,7 +10973,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>529</v>
       </c>
@@ -10984,7 +10987,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>531</v>
       </c>
@@ -11008,7 +11011,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>531</v>
       </c>
@@ -11030,7 +11033,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>537</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>537</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>540</v>
       </c>
@@ -11085,7 +11088,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>543</v>
       </c>
@@ -11107,7 +11110,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>543</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>543</v>
       </c>
@@ -11144,7 +11147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>543</v>
       </c>
@@ -11158,7 +11161,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>551</v>
       </c>
@@ -11180,7 +11183,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>551</v>
       </c>
@@ -11202,7 +11205,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>551</v>
       </c>
@@ -11224,7 +11227,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12" ht="306">
+    <row r="203" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>557</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="340">
+    <row r="204" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>560</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>560</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="340">
+    <row r="206" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>564</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>564</v>
       </c>
@@ -11303,7 +11306,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="187">
+    <row r="208" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>569</v>
       </c>
@@ -11317,7 +11320,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>572</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>572</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>575</v>
       </c>
@@ -11359,7 +11362,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>575</v>
       </c>
@@ -11373,7 +11376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>575</v>
       </c>
@@ -11390,7 +11393,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="238">
+    <row r="214" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>575</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="238">
+    <row r="215" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>582</v>
       </c>
@@ -11430,7 +11433,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>585</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="306">
+    <row r="217" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>588</v>
       </c>
@@ -11458,7 +11461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>590</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>592</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>592</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="187">
+    <row r="221" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>592</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="404">
+    <row r="222" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>598</v>
       </c>
@@ -11541,7 +11544,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12" ht="409.6">
+    <row r="223" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>601</v>
       </c>
@@ -11573,7 +11576,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>606</v>
       </c>
@@ -11595,7 +11598,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12" ht="306">
+    <row r="225" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>606</v>
       </c>
@@ -11619,7 +11622,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12" ht="255">
+    <row r="226" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>606</v>
       </c>
@@ -11641,7 +11644,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12" ht="272">
+    <row r="227" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>613</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>613</v>
       </c>
@@ -11672,7 +11675,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>617</v>
       </c>
@@ -11694,7 +11697,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>617</v>
       </c>
@@ -11716,7 +11719,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>617</v>
       </c>
@@ -11738,7 +11741,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12" ht="255">
+    <row r="232" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>622</v>
       </c>
@@ -11752,7 +11755,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="102">
+    <row r="233" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>624</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="255">
+    <row r="234" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>624</v>
       </c>
@@ -11783,7 +11786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>624</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="170">
+    <row r="236" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>628</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="238">
+    <row r="237" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>630</v>
       </c>
@@ -11828,7 +11831,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="204">
+    <row r="238" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>632</v>
       </c>
@@ -11842,7 +11845,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>632</v>
       </c>
@@ -11856,7 +11859,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>636</v>
       </c>
@@ -11870,7 +11873,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>638</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>640</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>640</v>
       </c>
@@ -11921,7 +11924,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="221">
+    <row r="244" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>645</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="170">
+    <row r="245" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>648</v>
       </c>
@@ -11949,7 +11952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="409.6">
+    <row r="246" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>648</v>
       </c>
@@ -11963,7 +11966,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="255">
+    <row r="247" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>652</v>
       </c>
@@ -11985,7 +11988,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12" ht="238">
+    <row r="248" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>652</v>
       </c>
@@ -12007,7 +12010,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>652</v>
       </c>
@@ -12021,7 +12024,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>657</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>660</v>
       </c>
@@ -12049,7 +12052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>660</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>664</v>
       </c>
@@ -12077,7 +12080,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="221">
+    <row r="254" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>664</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>668</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>668</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="372">
+    <row r="257" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>672</v>
       </c>
@@ -12142,7 +12145,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>672</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="255">
+    <row r="259" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>672</v>
       </c>
@@ -12170,7 +12173,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="340">
+    <row r="260" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>678</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="187">
+    <row r="261" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>678</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>684</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="221">
+    <row r="263" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>684</v>
       </c>
@@ -12247,7 +12250,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="204">
+    <row r="264" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>684</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>684</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>684</v>
       </c>
@@ -12300,7 +12303,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>693</v>
       </c>
@@ -12324,7 +12327,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>695</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="221">
+    <row r="269" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>697</v>
       </c>
@@ -12355,7 +12358,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="289">
+    <row r="270" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>697</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="187">
+    <row r="271" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>701</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="255">
+    <row r="272" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>701</v>
       </c>
@@ -12406,7 +12409,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>701</v>
       </c>
@@ -12420,7 +12423,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="272">
+    <row r="274" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>709</v>
       </c>
@@ -12446,7 +12449,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>709</v>
       </c>
@@ -12468,7 +12471,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>714</v>
       </c>
@@ -12482,7 +12485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>714</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>718</v>
       </c>
@@ -12513,7 +12516,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>718</v>
       </c>
@@ -12527,7 +12530,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>718</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>718</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>726</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>729</v>
       </c>
@@ -12592,7 +12595,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>729</v>
       </c>
@@ -12616,7 +12619,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12" ht="221">
+    <row r="285" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>735</v>
       </c>
@@ -12646,7 +12649,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="221">
+    <row r="286" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>735</v>
       </c>
@@ -12670,7 +12673,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12" ht="221">
+    <row r="287" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>743</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>743</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>748</v>
       </c>
@@ -12724,7 +12727,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>748</v>
       </c>
@@ -12741,7 +12744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>748</v>
       </c>
@@ -12764,7 +12767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="272">
+    <row r="292" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>754</v>
       </c>
@@ -12778,7 +12781,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="272">
+    <row r="293" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>754</v>
       </c>
@@ -12792,7 +12795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="204">
+    <row r="294" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>754</v>
       </c>
@@ -12809,7 +12812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>754</v>
       </c>
@@ -12826,7 +12829,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>754</v>
       </c>
@@ -12840,7 +12843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="255">
+    <row r="297" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>761</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>764</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="404">
+    <row r="299" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>766</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>766</v>
       </c>
@@ -12899,7 +12902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>769</v>
       </c>
@@ -12916,7 +12919,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="187">
+    <row r="302" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>773</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>775</v>
       </c>
@@ -12944,7 +12947,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>775</v>
       </c>
@@ -12966,7 +12969,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>775</v>
       </c>
@@ -12996,7 +12999,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>775</v>
       </c>
@@ -13026,7 +13029,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>785</v>
       </c>
@@ -13048,7 +13051,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12" ht="221">
+    <row r="308" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>785</v>
       </c>
@@ -13062,7 +13065,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>785</v>
       </c>
@@ -13076,7 +13079,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="204">
+    <row r="310" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>789</v>
       </c>
@@ -13098,7 +13101,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>789</v>
       </c>
@@ -13120,7 +13123,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>789</v>
       </c>
@@ -13142,7 +13145,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12" ht="238">
+    <row r="313" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>793</v>
       </c>
@@ -13156,7 +13159,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="238">
+    <row r="314" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>793</v>
       </c>
@@ -13170,7 +13173,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>797</v>
       </c>
@@ -13187,7 +13190,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="306">
+    <row r="316" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>799</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>799</v>
       </c>
@@ -13218,7 +13221,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>805</v>
       </c>
@@ -13232,7 +13235,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>805</v>
       </c>
@@ -13246,7 +13249,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>805</v>
       </c>
@@ -13260,7 +13263,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>810</v>
       </c>
@@ -13277,7 +13280,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>810</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>814</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>816</v>
       </c>
@@ -13329,7 +13332,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>816</v>
       </c>
@@ -13355,7 +13358,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12" ht="238">
+    <row r="326" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>823</v>
       </c>
@@ -13377,7 +13380,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>823</v>
       </c>
@@ -13391,7 +13394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>823</v>
       </c>
@@ -13408,7 +13411,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="187">
+    <row r="329" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>828</v>
       </c>
@@ -13430,7 +13433,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>831</v>
       </c>
@@ -13454,7 +13457,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>834</v>
       </c>
@@ -13474,7 +13477,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>834</v>
       </c>
@@ -13491,7 +13494,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>839</v>
       </c>
@@ -13513,7 +13516,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>841</v>
       </c>
@@ -13527,7 +13530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="221">
+    <row r="335" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>843</v>
       </c>
@@ -13544,7 +13547,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>846</v>
       </c>
@@ -13558,7 +13561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>848</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="255">
+    <row r="338" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>848</v>
       </c>
@@ -13596,7 +13599,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12" ht="238">
+    <row r="339" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>848</v>
       </c>
@@ -13613,7 +13616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="238">
+    <row r="340" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>853</v>
       </c>
@@ -13635,7 +13638,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>853</v>
       </c>
@@ -13657,7 +13660,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>857</v>
       </c>
@@ -13685,7 +13688,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12" ht="404">
+    <row r="343" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>857</v>
       </c>
@@ -13699,7 +13702,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>862</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>864</v>
       </c>
@@ -13727,7 +13730,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>867</v>
       </c>
@@ -13741,7 +13744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>869</v>
       </c>
@@ -13755,7 +13758,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="255">
+    <row r="348" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>871</v>
       </c>
@@ -13772,7 +13775,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>871</v>
       </c>
@@ -13786,7 +13789,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="221">
+    <row r="350" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>874</v>
       </c>
@@ -13808,7 +13811,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>874</v>
       </c>
@@ -13832,7 +13835,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>874</v>
       </c>
@@ -13856,7 +13859,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>880</v>
       </c>
@@ -13878,7 +13881,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>880</v>
       </c>
@@ -13900,7 +13903,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>880</v>
       </c>
@@ -13922,7 +13925,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12" ht="238">
+    <row r="356" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>885</v>
       </c>
@@ -13944,7 +13947,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12" ht="221">
+    <row r="357" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>888</v>
       </c>
@@ -13958,7 +13961,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="221">
+    <row r="358" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>891</v>
       </c>
@@ -13972,7 +13975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>891</v>
       </c>
@@ -13992,7 +13995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>891</v>
       </c>
@@ -14006,7 +14009,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="238">
+    <row r="361" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>891</v>
       </c>
@@ -14023,7 +14026,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>891</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>891</v>
       </c>
@@ -14051,7 +14054,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>900</v>
       </c>
@@ -14065,7 +14068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="221">
+    <row r="365" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>902</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>902</v>
       </c>
@@ -14093,7 +14096,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>906</v>
       </c>
@@ -14115,7 +14118,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12" ht="409.6">
+    <row r="368" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>906</v>
       </c>
@@ -14144,7 +14147,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="238">
+    <row r="369" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>913</v>
       </c>
@@ -14158,7 +14161,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>916</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>916</v>
       </c>
@@ -14189,7 +14192,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>920</v>
       </c>
@@ -14203,7 +14206,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="221">
+    <row r="373" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>920</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="306">
+    <row r="374" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>923</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>926</v>
       </c>
@@ -14245,7 +14248,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>928</v>
       </c>
@@ -14262,7 +14265,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="51">
+    <row r="377" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>928</v>
       </c>
@@ -14276,7 +14279,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="204">
+    <row r="378" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>928</v>
       </c>
@@ -14290,7 +14293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="289">
+    <row r="379" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>934</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="136">
+    <row r="380" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>938</v>
       </c>
@@ -14321,7 +14324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="255">
+    <row r="381" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>940</v>
       </c>
@@ -14345,7 +14348,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12" ht="255">
+    <row r="382" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>942</v>
       </c>
@@ -14367,7 +14370,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12" ht="187">
+    <row r="383" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>944</v>
       </c>
@@ -14389,7 +14392,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12" ht="68">
+    <row r="384" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>946</v>
       </c>
@@ -14411,7 +14414,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="85">
+    <row r="385" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>946</v>
       </c>
@@ -14433,7 +14436,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12" ht="51">
+    <row r="386" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>946</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="170">
+    <row r="387" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>952</v>
       </c>
@@ -14471,7 +14474,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="136">
+    <row r="388" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>952</v>
       </c>
@@ -14495,7 +14498,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12" ht="255">
+    <row r="389" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>957</v>
       </c>
@@ -14509,7 +14512,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="68">
+    <row r="390" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>957</v>
       </c>
@@ -14526,7 +14529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="221">
+    <row r="391" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>961</v>
       </c>
@@ -14546,7 +14549,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="102">
+    <row r="392" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>961</v>
       </c>
@@ -14560,7 +14563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="136">
+    <row r="393" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>961</v>
       </c>
@@ -14574,7 +14577,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="119">
+    <row r="394" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>961</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="187">
+    <row r="395" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>969</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="136">
+    <row r="396" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>973</v>
       </c>
@@ -14631,7 +14634,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="153">
+    <row r="397" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>973</v>
       </c>
@@ -14645,7 +14648,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="153">
+    <row r="398" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>976</v>
       </c>
@@ -14659,7 +14662,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>979</v>
       </c>
@@ -14673,7 +14676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="136">
+    <row r="400" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>981</v>
       </c>
@@ -14687,7 +14690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="68">
+    <row r="401" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>983</v>
       </c>
@@ -14704,7 +14707,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68">
+    <row r="402" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>983</v>
       </c>
@@ -14721,7 +14724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="409.6">
+    <row r="403" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>983</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="119">
+    <row r="404" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>983</v>
       </c>
@@ -14752,7 +14755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="102">
+    <row r="405" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>983</v>
       </c>
@@ -14766,7 +14769,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>989</v>
       </c>
@@ -14780,7 +14783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="238">
+    <row r="407" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>991</v>
       </c>
@@ -14803,7 +14806,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="221">
+    <row r="408" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>991</v>
       </c>
@@ -14820,7 +14823,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="102">
+    <row r="409" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>991</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="221">
+    <row r="410" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>998</v>
       </c>
@@ -14854,7 +14857,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="221">
+    <row r="411" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>998</v>
       </c>
@@ -14868,7 +14871,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85">
+    <row r="412" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>998</v>
       </c>
@@ -14885,7 +14888,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="170">
+    <row r="413" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>998</v>
       </c>
@@ -14905,7 +14908,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="119">
+    <row r="414" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1007</v>
       </c>
@@ -14922,7 +14925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="323">
+    <row r="415" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1009</v>
       </c>
@@ -14939,7 +14942,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="409.6">
+    <row r="416" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1011</v>
       </c>
@@ -14956,7 +14959,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="51">
+    <row r="417" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1014</v>
       </c>
@@ -14973,7 +14976,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="418" spans="1:12" ht="289">
+    <row r="418" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1016</v>
       </c>
@@ -14987,7 +14990,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="119">
+    <row r="419" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1018</v>
       </c>
@@ -15001,7 +15004,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="420" spans="1:12" ht="409.6">
+    <row r="420" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1021</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="421" spans="1:12" ht="187">
+    <row r="421" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1024</v>
       </c>
@@ -15035,7 +15038,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="153">
+    <row r="422" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1024</v>
       </c>
@@ -15058,7 +15061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="204">
+    <row r="423" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>1028</v>
       </c>
@@ -15084,7 +15087,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12" ht="136">
+    <row r="424" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>1028</v>
       </c>
@@ -15108,7 +15111,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12" ht="85">
+    <row r="425" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1028</v>
       </c>
@@ -15122,7 +15125,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="119">
+    <row r="426" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1028</v>
       </c>
@@ -15139,7 +15142,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="427" spans="1:12" ht="34">
+    <row r="427" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1038</v>
       </c>
@@ -15153,7 +15156,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="238">
+    <row r="428" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1038</v>
       </c>
@@ -15167,7 +15170,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="429" spans="1:12" ht="306">
+    <row r="429" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1041</v>
       </c>
@@ -15181,7 +15184,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="119">
+    <row r="430" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1043</v>
       </c>
@@ -15195,7 +15198,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="170">
+    <row r="431" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1045</v>
       </c>
@@ -15209,7 +15212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:12" ht="102">
+    <row r="432" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1045</v>
       </c>
@@ -15223,7 +15226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="221">
+    <row r="433" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1048</v>
       </c>
@@ -15237,7 +15240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="136">
+    <row r="434" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1048</v>
       </c>
@@ -15251,7 +15254,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="170">
+    <row r="435" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1051</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="119">
+    <row r="436" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1051</v>
       </c>
@@ -15285,7 +15288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="238">
+    <row r="437" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1051</v>
       </c>
@@ -15299,7 +15302,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="340">
+    <row r="438" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1055</v>
       </c>
@@ -15316,7 +15319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>1055</v>
       </c>
@@ -15338,7 +15341,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>1055</v>
       </c>
@@ -15360,7 +15363,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" ht="136">
+    <row r="441" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>1060</v>
       </c>
@@ -15382,7 +15385,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="136">
+    <row r="442" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1063</v>
       </c>
@@ -15399,7 +15402,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1065</v>
       </c>
@@ -15416,7 +15419,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1065</v>
       </c>
@@ -15439,7 +15442,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1065</v>
       </c>
@@ -15453,7 +15456,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1065</v>
       </c>
@@ -15467,7 +15470,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1065</v>
       </c>
@@ -15481,7 +15484,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1065</v>
       </c>
@@ -15495,7 +15498,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="136">
+    <row r="449" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1074</v>
       </c>
@@ -15512,7 +15515,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="136">
+    <row r="450" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1078</v>
       </c>
@@ -15526,7 +15529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="409.6">
+    <row r="451" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1080</v>
       </c>
@@ -15552,7 +15555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="153">
+    <row r="452" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1082</v>
       </c>
@@ -15566,7 +15569,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1085</v>
       </c>
@@ -15580,7 +15583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1085</v>
       </c>
@@ -15594,7 +15597,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1085</v>
       </c>
@@ -15608,7 +15611,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="170">
+    <row r="456" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1091</v>
       </c>
@@ -15625,7 +15628,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="388">
+    <row r="457" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1091</v>
       </c>
@@ -15642,7 +15645,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="119">
+    <row r="458" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1091</v>
       </c>
@@ -15656,7 +15659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="153">
+    <row r="459" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1091</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="153">
+    <row r="460" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1099</v>
       </c>
@@ -15696,7 +15699,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="272">
+    <row r="461" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15722,7 +15725,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="272">
+    <row r="462" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15748,7 +15751,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12" ht="187">
+    <row r="463" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15770,7 +15773,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" ht="204">
+    <row r="464" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15794,7 +15797,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="68">
+    <row r="465" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>1101</v>
       </c>
@@ -15816,7 +15819,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="187">
+    <row r="466" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>1111</v>
       </c>
@@ -15840,7 +15843,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12" ht="136">
+    <row r="467" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1111</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="68">
+    <row r="468" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1111</v>
       </c>
@@ -15874,7 +15877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>1116</v>
       </c>
@@ -15902,7 +15905,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>1116</v>
       </c>
@@ -15924,7 +15927,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12" ht="272">
+    <row r="471" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1116</v>
       </c>
@@ -15944,7 +15947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="409.6">
+    <row r="472" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1123</v>
       </c>
@@ -15970,7 +15973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="272">
+    <row r="473" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>1128</v>
       </c>
@@ -15996,7 +15999,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12" ht="340">
+    <row r="474" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>1133</v>
       </c>
@@ -16026,7 +16029,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" ht="153">
+    <row r="475" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>1133</v>
       </c>
@@ -16050,7 +16053,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1140</v>
       </c>
@@ -16067,7 +16070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="409.6">
+    <row r="477" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1143</v>
       </c>
@@ -16081,7 +16084,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="238">
+    <row r="478" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1146</v>
       </c>
@@ -16098,7 +16101,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="238">
+    <row r="479" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1146</v>
       </c>
@@ -16115,7 +16118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="187">
+    <row r="480" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1146</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="153">
+    <row r="481" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1146</v>
       </c>
@@ -16146,7 +16149,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="306">
+    <row r="482" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1153</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="238">
+    <row r="483" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1153</v>
       </c>
@@ -16180,7 +16183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>1157</v>
       </c>
@@ -16202,7 +16205,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="409.6">
+    <row r="485" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>1157</v>
       </c>
@@ -16224,7 +16227,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" ht="289">
+    <row r="486" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1161</v>
       </c>
@@ -16238,7 +16241,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="153">
+    <row r="487" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1163</v>
       </c>
@@ -16252,7 +16255,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="204">
+    <row r="488" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>1165</v>
       </c>
@@ -16274,7 +16277,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12" ht="238">
+    <row r="489" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>1165</v>
       </c>
@@ -16296,7 +16299,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="170">
+    <row r="490" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16318,7 +16321,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12" ht="187">
+    <row r="491" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16340,7 +16343,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12" ht="272">
+    <row r="492" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16362,7 +16365,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12" ht="136">
+    <row r="493" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16384,7 +16387,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="153">
+    <row r="494" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>1169</v>
       </c>
@@ -16406,7 +16409,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="170">
+    <row r="495" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>1176</v>
       </c>
@@ -16430,7 +16433,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12" ht="119">
+    <row r="496" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1176</v>
       </c>
@@ -16453,7 +16456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="102">
+    <row r="497" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1176</v>
       </c>
@@ -16467,7 +16470,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="102">
+    <row r="498" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1181</v>
       </c>
@@ -16484,7 +16487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="119">
+    <row r="499" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1184</v>
       </c>
@@ -16501,7 +16504,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="68">
+    <row r="500" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1184</v>
       </c>
@@ -16515,7 +16518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="153">
+    <row r="501" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1189</v>
       </c>
@@ -16532,7 +16535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="170">
+    <row r="502" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1191</v>
       </c>
@@ -16546,7 +16549,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="170">
+    <row r="503" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1194</v>
       </c>
@@ -16563,7 +16566,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="221">
+    <row r="504" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1194</v>
       </c>
@@ -16583,7 +16586,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="187">
+    <row r="505" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1199</v>
       </c>
@@ -16597,7 +16600,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="153">
+    <row r="506" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1199</v>
       </c>
@@ -16614,7 +16617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="170">
+    <row r="507" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1199</v>
       </c>
@@ -16628,7 +16631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="187">
+    <row r="508" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1199</v>
       </c>
@@ -16642,7 +16645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="68">
+    <row r="509" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1199</v>
       </c>
@@ -16656,7 +16659,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="119">
+    <row r="510" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1205</v>
       </c>
@@ -16673,7 +16676,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="221">
+    <row r="511" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1207</v>
       </c>
@@ -16693,7 +16696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="153">
+    <row r="512" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1209</v>
       </c>
@@ -16707,7 +16710,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="238">
+    <row r="513" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1209</v>
       </c>
@@ -16730,7 +16733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="119">
+    <row r="514" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1213</v>
       </c>
@@ -16744,7 +16747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="102">
+    <row r="515" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16766,7 +16769,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12" ht="85">
+    <row r="516" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16788,7 +16791,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12" ht="204">
+    <row r="517" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16814,7 +16817,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12" ht="136">
+    <row r="518" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16838,7 +16841,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="187">
+    <row r="519" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16860,7 +16863,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="1:12" ht="119">
+    <row r="520" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>1226</v>
       </c>
@@ -16882,7 +16885,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12" ht="388">
+    <row r="521" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>1229</v>
       </c>
@@ -16908,7 +16911,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" ht="51">
+    <row r="522" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>1229</v>
       </c>
@@ -16930,7 +16933,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12" ht="68">
+    <row r="523" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1235</v>
       </c>
@@ -16947,7 +16950,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="153">
+    <row r="524" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>1237</v>
       </c>
@@ -16971,7 +16974,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12" ht="34">
+    <row r="525" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1239</v>
       </c>
@@ -16985,7 +16988,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="526" spans="1:12" ht="102">
+    <row r="526" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1241</v>
       </c>
@@ -16999,7 +17002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="85">
+    <row r="527" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1241</v>
       </c>
@@ -17013,7 +17016,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="528" spans="1:12" ht="119">
+    <row r="528" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1245</v>
       </c>
@@ -17027,7 +17030,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="306">
+    <row r="529" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1245</v>
       </c>
@@ -17050,7 +17053,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="306">
+    <row r="530" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1252</v>
       </c>
@@ -17070,7 +17073,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="289">
+    <row r="531" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1252</v>
       </c>
@@ -17090,7 +17093,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="102">
+    <row r="532" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1258</v>
       </c>
@@ -17104,7 +17107,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="356">
+    <row r="533" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1260</v>
       </c>
@@ -17121,7 +17124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="119">
+    <row r="534" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1260</v>
       </c>
@@ -17135,7 +17138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="102">
+    <row r="535" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1263</v>
       </c>
@@ -17149,7 +17152,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="119">
+    <row r="536" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1263</v>
       </c>
@@ -17169,7 +17172,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="409.6">
+    <row r="537" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1260</v>
       </c>
@@ -17186,7 +17189,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="102">
+    <row r="538" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1271</v>
       </c>
@@ -17200,7 +17203,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="51">
+    <row r="539" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1274</v>
       </c>
@@ -17214,7 +17217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="136">
+    <row r="540" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1274</v>
       </c>
@@ -17228,7 +17231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="153">
+    <row r="541" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1277</v>
       </c>
@@ -17242,7 +17245,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1279</v>
       </c>
@@ -17256,7 +17259,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="136">
+    <row r="543" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1279</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="170">
+    <row r="544" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1279</v>
       </c>
@@ -17299,7 +17302,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="255">
+    <row r="545" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>1286</v>
       </c>
@@ -17321,7 +17324,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="289">
+    <row r="546" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1286</v>
       </c>
@@ -17347,7 +17350,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="221">
+    <row r="547" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1286</v>
       </c>
@@ -17367,7 +17370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="272">
+    <row r="548" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1286</v>
       </c>
@@ -17387,7 +17390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="68">
+    <row r="549" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1296</v>
       </c>
@@ -17407,7 +17410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="323">
+    <row r="550" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1298</v>
       </c>
@@ -17439,7 +17442,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="551" spans="1:12" ht="136">
+    <row r="551" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>1298</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:12" ht="102">
+    <row r="552" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>1306</v>
       </c>
@@ -17482,7 +17485,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" ht="136">
+    <row r="553" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>1306</v>
       </c>
@@ -17504,7 +17507,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12" ht="85">
+    <row r="554" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
         <v>1306</v>
       </c>
@@ -17528,7 +17531,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="221">
+    <row r="555" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1311</v>
       </c>
@@ -17545,7 +17548,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="34">
+    <row r="556" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1314</v>
       </c>
@@ -17559,7 +17562,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="409.6">
+    <row r="557" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1316</v>
       </c>
@@ -17585,7 +17588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:12">
+    <row r="558" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1320</v>
       </c>
@@ -17605,7 +17608,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="289">
+    <row r="559" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
         <v>1323</v>
       </c>
@@ -17629,7 +17632,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
-    <row r="560" spans="1:12">
+    <row r="560" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1326</v>
       </c>
@@ -17643,7 +17646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="170">
+    <row r="561" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
         <v>1328</v>
       </c>
@@ -17669,7 +17672,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
-    <row r="562" spans="1:12" ht="170">
+    <row r="562" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>1331</v>
       </c>
@@ -17693,7 +17696,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12" ht="153">
+    <row r="563" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>1335</v>
       </c>
@@ -17715,7 +17718,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" ht="323">
+    <row r="564" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1335</v>
       </c>
@@ -17741,7 +17744,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="238">
+    <row r="565" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1335</v>
       </c>
@@ -17758,7 +17761,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="566" spans="1:12" ht="119">
+    <row r="566" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1344</v>
       </c>
@@ -17775,7 +17778,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="567" spans="1:12">
+    <row r="567" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1347</v>
       </c>
@@ -17792,7 +17795,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="409.6">
+    <row r="568" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1349</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="340">
+    <row r="569" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1352</v>
       </c>
@@ -17823,7 +17826,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="255">
+    <row r="570" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1355</v>
       </c>
@@ -17840,7 +17843,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="51">
+    <row r="571" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1358</v>
       </c>
@@ -17854,7 +17857,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="153">
+    <row r="572" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1358</v>
       </c>
@@ -17874,7 +17877,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="170">
+    <row r="573" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1363</v>
       </c>
@@ -17891,7 +17894,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="136">
+    <row r="574" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1366</v>
       </c>
@@ -17908,7 +17911,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="221">
+    <row r="575" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1369</v>
       </c>
@@ -17925,7 +17928,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="102">
+    <row r="576" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1369</v>
       </c>
@@ -17942,7 +17945,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="577" spans="1:12" ht="68">
+    <row r="577" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1374</v>
       </c>
@@ -17956,7 +17959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="255">
+    <row r="578" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1374</v>
       </c>
@@ -17976,7 +17979,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="579" spans="1:12" ht="102">
+    <row r="579" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1378</v>
       </c>
@@ -17993,7 +17996,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="580" spans="1:12" ht="170">
+    <row r="580" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1380</v>
       </c>
@@ -18010,7 +18013,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="581" spans="1:12" ht="238">
+    <row r="581" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1383</v>
       </c>
@@ -18024,7 +18027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="582" spans="1:12" ht="119">
+    <row r="582" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1383</v>
       </c>
@@ -18044,7 +18047,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="409.6">
+    <row r="583" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1383</v>
       </c>
@@ -18070,7 +18073,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="153">
+    <row r="584" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1389</v>
       </c>
@@ -18087,7 +18090,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="585" spans="1:12" ht="170">
+    <row r="585" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1389</v>
       </c>
@@ -18101,7 +18104,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="586" spans="1:12" ht="119">
+    <row r="586" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1395</v>
       </c>
@@ -18115,7 +18118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1397</v>
       </c>
@@ -18129,7 +18132,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1397</v>
       </c>
@@ -18143,7 +18146,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="589" spans="1:12" s="6" customFormat="1">
+    <row r="589" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6" t="s">
         <v>1400</v>
       </c>
@@ -18166,7 +18169,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>1400</v>
       </c>
@@ -18190,7 +18193,7 @@
       <c r="K590" s="7"/>
       <c r="L590" s="7"/>
     </row>
-    <row r="591" spans="1:12" s="6" customFormat="1">
+    <row r="591" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6" t="s">
         <v>1400</v>
       </c>
@@ -18204,7 +18207,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="592" spans="1:12" s="6" customFormat="1">
+    <row r="592" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6" t="s">
         <v>1400</v>
       </c>
@@ -18224,7 +18227,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="593" spans="1:12" s="6" customFormat="1">
+    <row r="593" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6" t="s">
         <v>1412</v>
       </c>
@@ -18241,7 +18244,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="594" spans="1:12" s="6" customFormat="1">
+    <row r="594" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6" t="s">
         <v>1415</v>
       </c>
@@ -18258,7 +18261,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="595" spans="1:12" s="6" customFormat="1">
+    <row r="595" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6" t="s">
         <v>1419</v>
       </c>
@@ -18272,7 +18275,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="596" spans="1:12" s="6" customFormat="1">
+    <row r="596" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6" t="s">
         <v>1419</v>
       </c>
@@ -18286,7 +18289,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="597" spans="1:12">
+    <row r="597" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="7" t="s">
         <v>1419</v>
       </c>
@@ -18310,7 +18313,7 @@
       <c r="K597" s="7"/>
       <c r="L597" s="7"/>
     </row>
-    <row r="598" spans="1:12">
+    <row r="598" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
         <v>1419</v>
       </c>
@@ -18332,7 +18335,7 @@
       <c r="K598" s="7"/>
       <c r="L598" s="7"/>
     </row>
-    <row r="599" spans="1:12" s="6" customFormat="1">
+    <row r="599" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6" t="s">
         <v>1426</v>
       </c>
@@ -18346,7 +18349,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="600" spans="1:12" s="6" customFormat="1">
+    <row r="600" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6" t="s">
         <v>1426</v>
       </c>
@@ -18363,7 +18366,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="601" spans="1:12" s="6" customFormat="1">
+    <row r="601" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6" t="s">
         <v>1426</v>
       </c>
@@ -18383,7 +18386,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="602" spans="1:12" s="6" customFormat="1">
+    <row r="602" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6" t="s">
         <v>1435</v>
       </c>
@@ -18397,7 +18400,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="603" spans="1:12" s="6" customFormat="1">
+    <row r="603" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6" t="s">
         <v>1435</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="604" spans="1:12" s="6" customFormat="1">
+    <row r="604" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6" t="s">
         <v>1440</v>
       </c>
@@ -18434,7 +18437,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="605" spans="1:12" s="6" customFormat="1">
+    <row r="605" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6" t="s">
         <v>1444</v>
       </c>
@@ -18448,7 +18451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>1446</v>
       </c>
@@ -18472,7 +18475,7 @@
       <c r="K606" s="7"/>
       <c r="L606" s="7"/>
     </row>
-    <row r="607" spans="1:12" s="6" customFormat="1">
+    <row r="607" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6" t="s">
         <v>1449</v>
       </c>
@@ -18486,7 +18489,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="608" spans="1:12" s="6" customFormat="1">
+    <row r="608" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6" t="s">
         <v>1451</v>
       </c>
@@ -18503,7 +18506,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="609" spans="1:12" s="6" customFormat="1">
+    <row r="609" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6" t="s">
         <v>1451</v>
       </c>
@@ -18517,7 +18520,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="610" spans="1:12" s="6" customFormat="1">
+    <row r="610" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6" t="s">
         <v>1457</v>
       </c>
@@ -18537,7 +18540,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="611" spans="1:12">
+    <row r="611" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>1462</v>
       </c>
@@ -18559,7 +18562,7 @@
       <c r="K611" s="7"/>
       <c r="L611" s="7"/>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>1465</v>
       </c>
@@ -18581,7 +18584,7 @@
       <c r="K612" s="7"/>
       <c r="L612" s="7"/>
     </row>
-    <row r="613" spans="1:12" s="6" customFormat="1">
+    <row r="613" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6" t="s">
         <v>1468</v>
       </c>
@@ -18598,7 +18601,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="614" spans="1:12" s="6" customFormat="1">
+    <row r="614" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6" t="s">
         <v>1468</v>
       </c>
@@ -18615,7 +18618,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="615" spans="1:12" s="6" customFormat="1">
+    <row r="615" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6" t="s">
         <v>1468</v>
       </c>
@@ -18629,7 +18632,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="616" spans="1:12" s="6" customFormat="1">
+    <row r="616" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6" t="s">
         <v>1468</v>
       </c>
@@ -18643,7 +18646,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="617" spans="1:12" s="6" customFormat="1">
+    <row r="617" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="6" t="s">
         <v>1476</v>
       </c>
@@ -18660,7 +18663,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="618" spans="1:12" s="6" customFormat="1">
+    <row r="618" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6" t="s">
         <v>1480</v>
       </c>
@@ -18677,7 +18680,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="619" spans="1:12" s="6" customFormat="1">
+    <row r="619" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6" t="s">
         <v>1480</v>
       </c>
@@ -18691,7 +18694,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="620" spans="1:12" s="6" customFormat="1">
+    <row r="620" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6" t="s">
         <v>1484</v>
       </c>
@@ -18705,7 +18708,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="621" spans="1:12" s="6" customFormat="1">
+    <row r="621" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="6" t="s">
         <v>1486</v>
       </c>
@@ -18719,7 +18722,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="622" spans="1:12" s="6" customFormat="1">
+    <row r="622" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="6" t="s">
         <v>1486</v>
       </c>
@@ -18736,7 +18739,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="623" spans="1:12" s="6" customFormat="1">
+    <row r="623" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="6" t="s">
         <v>1491</v>
       </c>
@@ -18753,7 +18756,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="624" spans="1:12" s="6" customFormat="1">
+    <row r="624" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6" t="s">
         <v>1491</v>
       </c>
@@ -18773,7 +18776,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="6" customFormat="1">
+    <row r="625" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="6" t="s">
         <v>1491</v>
       </c>
@@ -18790,7 +18793,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="626" spans="1:7" s="6" customFormat="1">
+    <row r="626" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="6" t="s">
         <v>1500</v>
       </c>
@@ -18804,7 +18807,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="627" spans="1:7" s="6" customFormat="1">
+    <row r="627" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6" t="s">
         <v>1500</v>
       </c>
@@ -18818,7 +18821,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="628" spans="1:7" s="6" customFormat="1">
+    <row r="628" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="6" t="s">
         <v>1500</v>
       </c>
@@ -18832,7 +18835,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="629" spans="1:7" s="6" customFormat="1">
+    <row r="629" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="6" t="s">
         <v>1505</v>
       </c>
@@ -18852,7 +18855,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="630" spans="1:7" s="6" customFormat="1">
+    <row r="630" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="6" t="s">
         <v>1508</v>
       </c>
@@ -18872,7 +18875,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="631" spans="1:7" s="6" customFormat="1">
+    <row r="631" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6" t="s">
         <v>1511</v>
       </c>
@@ -18886,7 +18889,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="632" spans="1:7" s="6" customFormat="1">
+    <row r="632" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="6" t="s">
         <v>1511</v>
       </c>
@@ -18903,7 +18906,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="633" spans="1:7" s="6" customFormat="1">
+    <row r="633" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="6" t="s">
         <v>1511</v>
       </c>
@@ -18920,7 +18923,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="634" spans="1:7" s="6" customFormat="1">
+    <row r="634" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="6" t="s">
         <v>1518</v>
       </c>
@@ -18940,7 +18943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="635" spans="1:7" s="6" customFormat="1">
+    <row r="635" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="6" t="s">
         <v>1522</v>
       </c>
@@ -18963,7 +18966,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="636" spans="1:7" s="6" customFormat="1">
+    <row r="636" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="6" t="s">
         <v>1522</v>
       </c>
@@ -18977,7 +18980,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="6" customFormat="1">
+    <row r="637" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="6" t="s">
         <v>1522</v>
       </c>
@@ -18991,7 +18994,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="638" spans="1:7" s="6" customFormat="1">
+    <row r="638" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="6" t="s">
         <v>1522</v>
       </c>
@@ -19008,7 +19011,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="639" spans="1:7" s="6" customFormat="1">
+    <row r="639" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6" t="s">
         <v>1522</v>
       </c>
@@ -19025,7 +19028,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="640" spans="1:7" s="6" customFormat="1">
+    <row r="640" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6" t="s">
         <v>1536</v>
       </c>
@@ -19039,7 +19042,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="641" spans="1:12" s="6" customFormat="1">
+    <row r="641" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="6" t="s">
         <v>1536</v>
       </c>
@@ -19056,7 +19059,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="642" spans="1:12" s="6" customFormat="1">
+    <row r="642" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="6" t="s">
         <v>1536</v>
       </c>
@@ -19070,7 +19073,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="643" spans="1:12" s="6" customFormat="1">
+    <row r="643" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="6" t="s">
         <v>1541</v>
       </c>
@@ -19096,7 +19099,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="644" spans="1:12">
+    <row r="644" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>1547</v>
       </c>
@@ -19118,7 +19121,7 @@
       <c r="K644" s="7"/>
       <c r="L644" s="7"/>
     </row>
-    <row r="645" spans="1:12" s="6" customFormat="1">
+    <row r="645" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="6" t="s">
         <v>1550</v>
       </c>
@@ -19135,7 +19138,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="646" spans="1:12" s="6" customFormat="1">
+    <row r="646" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="6" t="s">
         <v>1552</v>
       </c>
@@ -19152,7 +19155,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="647" spans="1:12" s="6" customFormat="1">
+    <row r="647" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="6" t="s">
         <v>1552</v>
       </c>
@@ -19166,7 +19169,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="648" spans="1:12">
+    <row r="648" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>1552</v>
       </c>
@@ -19188,7 +19191,7 @@
       <c r="K648" s="7"/>
       <c r="L648" s="7"/>
     </row>
-    <row r="649" spans="1:12" s="6" customFormat="1">
+    <row r="649" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="6" t="s">
         <v>1560</v>
       </c>
@@ -19214,7 +19217,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="650" spans="1:12" s="6" customFormat="1">
+    <row r="650" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="6" t="s">
         <v>1566</v>
       </c>
@@ -19234,7 +19237,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="651" spans="1:12" s="6" customFormat="1">
+    <row r="651" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="6" t="s">
         <v>1566</v>
       </c>
@@ -19248,7 +19251,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="652" spans="1:12" s="6" customFormat="1">
+    <row r="652" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="6" t="s">
         <v>1570</v>
       </c>
@@ -19262,7 +19265,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="653" spans="1:12" s="6" customFormat="1">
+    <row r="653" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="6" t="s">
         <v>1573</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="654" spans="1:12" s="6" customFormat="1">
+    <row r="654" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="6" t="s">
         <v>1577</v>
       </c>
@@ -19302,7 +19305,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="655" spans="1:12" s="6" customFormat="1">
+    <row r="655" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="6" t="s">
         <v>1577</v>
       </c>
@@ -19319,7 +19322,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="656" spans="1:12" s="6" customFormat="1">
+    <row r="656" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="6" t="s">
         <v>1581</v>
       </c>
@@ -19339,7 +19342,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="657" spans="1:12" s="6" customFormat="1">
+    <row r="657" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="6" t="s">
         <v>1586</v>
       </c>
@@ -19356,7 +19359,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="658" spans="1:12" s="6" customFormat="1">
+    <row r="658" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="6" t="s">
         <v>1586</v>
       </c>
@@ -19370,7 +19373,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="659" spans="1:12" s="6" customFormat="1">
+    <row r="659" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="6" t="s">
         <v>1586</v>
       </c>
@@ -19384,7 +19387,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="660" spans="1:12" s="6" customFormat="1">
+    <row r="660" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6" t="s">
         <v>1592</v>
       </c>
@@ -19401,7 +19404,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="661" spans="1:12" s="6" customFormat="1">
+    <row r="661" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="6" t="s">
         <v>1592</v>
       </c>
@@ -19415,7 +19418,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="662" spans="1:12" s="6" customFormat="1">
+    <row r="662" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6" t="s">
         <v>1596</v>
       </c>
@@ -19435,7 +19438,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="663" spans="1:12" s="6" customFormat="1">
+    <row r="663" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="6" t="s">
         <v>1598</v>
       </c>
@@ -19449,7 +19452,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="664" spans="1:12" s="6" customFormat="1">
+    <row r="664" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="6" t="s">
         <v>1601</v>
       </c>
@@ -19463,7 +19466,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="665" spans="1:12" s="6" customFormat="1">
+    <row r="665" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="6" t="s">
         <v>1601</v>
       </c>
@@ -19477,7 +19480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="666" spans="1:12" s="6" customFormat="1">
+    <row r="666" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="6" t="s">
         <v>1601</v>
       </c>
@@ -19491,7 +19494,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="667" spans="1:12" s="6" customFormat="1">
+    <row r="667" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="6" t="s">
         <v>1606</v>
       </c>
@@ -19508,7 +19511,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="668" spans="1:12" s="6" customFormat="1">
+    <row r="668" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="6" t="s">
         <v>1606</v>
       </c>
@@ -19525,7 +19528,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="669" spans="1:12" s="6" customFormat="1">
+    <row r="669" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6" t="s">
         <v>1606</v>
       </c>
@@ -19539,7 +19542,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="670" spans="1:12" s="6" customFormat="1">
+    <row r="670" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6" t="s">
         <v>1612</v>
       </c>
@@ -19556,7 +19559,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="671" spans="1:12" s="6" customFormat="1">
+    <row r="671" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6" t="s">
         <v>1615</v>
       </c>
@@ -19582,7 +19585,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="672" spans="1:12">
+    <row r="672" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19610,7 +19613,7 @@
       <c r="K672" s="7"/>
       <c r="L672" s="7"/>
     </row>
-    <row r="673" spans="1:12">
+    <row r="673" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19634,7 +19637,7 @@
       <c r="K673" s="7"/>
       <c r="L673" s="7"/>
     </row>
-    <row r="674" spans="1:12">
+    <row r="674" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19662,7 +19665,7 @@
       <c r="K674" s="7"/>
       <c r="L674" s="7"/>
     </row>
-    <row r="675" spans="1:12">
+    <row r="675" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19686,7 +19689,7 @@
       <c r="K675" s="7"/>
       <c r="L675" s="7"/>
     </row>
-    <row r="676" spans="1:12">
+    <row r="676" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19708,7 +19711,7 @@
       <c r="K676" s="7"/>
       <c r="L676" s="7"/>
     </row>
-    <row r="677" spans="1:12">
+    <row r="677" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19730,7 +19733,7 @@
       <c r="K677" s="7"/>
       <c r="L677" s="7"/>
     </row>
-    <row r="678" spans="1:12">
+    <row r="678" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19752,7 +19755,7 @@
       <c r="K678" s="7"/>
       <c r="L678" s="7"/>
     </row>
-    <row r="679" spans="1:12">
+    <row r="679" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>1620</v>
       </c>
@@ -19776,7 +19779,7 @@
       <c r="K679" s="7"/>
       <c r="L679" s="7"/>
     </row>
-    <row r="680" spans="1:12">
+    <row r="680" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>1638</v>
       </c>
@@ -19806,7 +19809,7 @@
       <c r="K680" s="7"/>
       <c r="L680" s="7"/>
     </row>
-    <row r="681" spans="1:12" s="6" customFormat="1">
+    <row r="681" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="6" t="s">
         <v>1643</v>
       </c>
@@ -19820,7 +19823,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="682" spans="1:12" s="6" customFormat="1">
+    <row r="682" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="6" t="s">
         <v>1643</v>
       </c>
@@ -19834,7 +19837,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="683" spans="1:12" s="6" customFormat="1">
+    <row r="683" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="6" t="s">
         <v>1648</v>
       </c>
@@ -19848,7 +19851,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="684" spans="1:12" s="6" customFormat="1">
+    <row r="684" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="6" t="s">
         <v>1650</v>
       </c>
@@ -19868,7 +19871,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="685" spans="1:12" s="6" customFormat="1">
+    <row r="685" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="6" t="s">
         <v>1650</v>
       </c>
@@ -19882,7 +19885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="686" spans="1:12" s="6" customFormat="1">
+    <row r="686" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="6" t="s">
         <v>1655</v>
       </c>
@@ -19902,7 +19905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="687" spans="1:12" s="6" customFormat="1">
+    <row r="687" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="6" t="s">
         <v>2207</v>
       </c>
@@ -19916,7 +19919,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="688" spans="1:12" s="6" customFormat="1">
+    <row r="688" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="6" t="s">
         <v>1659</v>
       </c>
@@ -19930,7 +19933,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="689" spans="1:7" s="6" customFormat="1">
+    <row r="689" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="6" t="s">
         <v>1659</v>
       </c>
@@ -19944,7 +19947,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="690" spans="1:7" s="6" customFormat="1">
+    <row r="690" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="6" t="s">
         <v>1663</v>
       </c>
@@ -19967,7 +19970,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="691" spans="1:7" s="6" customFormat="1">
+    <row r="691" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="6" t="s">
         <v>1667</v>
       </c>
@@ -19981,7 +19984,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="692" spans="1:7" s="6" customFormat="1">
+    <row r="692" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="6" t="s">
         <v>1667</v>
       </c>
@@ -19998,7 +20001,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="693" spans="1:7" s="6" customFormat="1">
+    <row r="693" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="6" t="s">
         <v>1667</v>
       </c>
@@ -20012,7 +20015,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="694" spans="1:7" s="6" customFormat="1">
+    <row r="694" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="6" t="s">
         <v>1673</v>
       </c>
@@ -20029,7 +20032,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="695" spans="1:7" s="6" customFormat="1">
+    <row r="695" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="6" t="s">
         <v>1673</v>
       </c>
@@ -20046,7 +20049,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="696" spans="1:7" s="6" customFormat="1">
+    <row r="696" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="6" t="s">
         <v>1679</v>
       </c>
@@ -20066,7 +20069,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="697" spans="1:7" s="6" customFormat="1">
+    <row r="697" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="6" t="s">
         <v>1679</v>
       </c>
@@ -20083,7 +20086,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="698" spans="1:7" s="6" customFormat="1">
+    <row r="698" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="6" t="s">
         <v>1685</v>
       </c>
@@ -20100,7 +20103,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="699" spans="1:7" s="6" customFormat="1">
+    <row r="699" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="6" t="s">
         <v>1688</v>
       </c>
@@ -20114,7 +20117,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="700" spans="1:7" s="6" customFormat="1">
+    <row r="700" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="6" t="s">
         <v>1688</v>
       </c>
@@ -20134,7 +20137,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="701" spans="1:7" s="6" customFormat="1">
+    <row r="701" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="6" t="s">
         <v>1688</v>
       </c>
@@ -20148,7 +20151,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="702" spans="1:7" s="6" customFormat="1">
+    <row r="702" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="6" t="s">
         <v>1695</v>
       </c>
@@ -20162,7 +20165,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="703" spans="1:7" s="6" customFormat="1">
+    <row r="703" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="6" t="s">
         <v>1695</v>
       </c>
@@ -20176,7 +20179,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="704" spans="1:7" s="6" customFormat="1">
+    <row r="704" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="6" t="s">
         <v>1695</v>
       </c>
@@ -20196,7 +20199,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="705" spans="1:9" s="6" customFormat="1">
+    <row r="705" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="6" t="s">
         <v>1695</v>
       </c>
@@ -20219,7 +20222,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="706" spans="1:9" s="6" customFormat="1">
+    <row r="706" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="6" t="s">
         <v>1702</v>
       </c>
@@ -20236,7 +20239,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="707" spans="1:9" s="6" customFormat="1">
+    <row r="707" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="6" t="s">
         <v>1702</v>
       </c>
@@ -20253,7 +20256,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="708" spans="1:9" s="6" customFormat="1">
+    <row r="708" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="6" t="s">
         <v>1702</v>
       </c>
@@ -20267,7 +20270,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="709" spans="1:9" s="6" customFormat="1">
+    <row r="709" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="6" t="s">
         <v>1708</v>
       </c>
@@ -20281,7 +20284,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="710" spans="1:9" s="6" customFormat="1">
+    <row r="710" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="6" t="s">
         <v>1708</v>
       </c>
@@ -20298,7 +20301,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="711" spans="1:9" s="6" customFormat="1">
+    <row r="711" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="6" t="s">
         <v>1708</v>
       </c>
@@ -20315,7 +20318,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="712" spans="1:9" s="6" customFormat="1">
+    <row r="712" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="6" t="s">
         <v>1714</v>
       </c>
@@ -20329,7 +20332,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="713" spans="1:9" s="6" customFormat="1">
+    <row r="713" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="6" t="s">
         <v>1716</v>
       </c>
@@ -20343,7 +20346,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="714" spans="1:9" s="6" customFormat="1">
+    <row r="714" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="6" t="s">
         <v>1716</v>
       </c>
@@ -20363,7 +20366,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="715" spans="1:9" s="6" customFormat="1">
+    <row r="715" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="6" t="s">
         <v>1716</v>
       </c>
@@ -20380,7 +20383,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="716" spans="1:9" s="6" customFormat="1">
+    <row r="716" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="6" t="s">
         <v>1716</v>
       </c>
@@ -20394,7 +20397,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="717" spans="1:9" s="6" customFormat="1">
+    <row r="717" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="6" t="s">
         <v>1716</v>
       </c>
@@ -20408,7 +20411,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="718" spans="1:9" s="6" customFormat="1">
+    <row r="718" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="6" t="s">
         <v>1727</v>
       </c>
@@ -20425,7 +20428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="719" spans="1:9" s="6" customFormat="1">
+    <row r="719" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="6" t="s">
         <v>1729</v>
       </c>
@@ -20439,7 +20442,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="720" spans="1:9" s="6" customFormat="1">
+    <row r="720" spans="1:9" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="6" t="s">
         <v>1729</v>
       </c>
@@ -20468,7 +20471,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="721" spans="1:12" s="6" customFormat="1">
+    <row r="721" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="6" t="s">
         <v>1729</v>
       </c>
@@ -20488,7 +20491,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="722" spans="1:12" s="6" customFormat="1">
+    <row r="722" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="6" t="s">
         <v>1739</v>
       </c>
@@ -20511,7 +20514,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="723" spans="1:12" s="6" customFormat="1">
+    <row r="723" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="6" t="s">
         <v>1739</v>
       </c>
@@ -20528,7 +20531,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="724" spans="1:12" s="6" customFormat="1">
+    <row r="724" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="6" t="s">
         <v>1739</v>
       </c>
@@ -20545,7 +20548,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="725" spans="1:12">
+    <row r="725" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>1749</v>
       </c>
@@ -20569,7 +20572,7 @@
       <c r="K725" s="7"/>
       <c r="L725" s="7"/>
     </row>
-    <row r="726" spans="1:12" s="6" customFormat="1">
+    <row r="726" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="6" t="s">
         <v>1749</v>
       </c>
@@ -20589,7 +20592,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="727" spans="1:12" s="6" customFormat="1">
+    <row r="727" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="6" t="s">
         <v>1749</v>
       </c>
@@ -20606,7 +20609,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="728" spans="1:12" s="6" customFormat="1">
+    <row r="728" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="6" t="s">
         <v>1758</v>
       </c>
@@ -20620,7 +20623,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="729" spans="1:12" s="6" customFormat="1">
+    <row r="729" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="6" t="s">
         <v>1758</v>
       </c>
@@ -20640,7 +20643,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="730" spans="1:12" s="6" customFormat="1">
+    <row r="730" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="6" t="s">
         <v>1758</v>
       </c>
@@ -20654,7 +20657,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="731" spans="1:12" s="6" customFormat="1">
+    <row r="731" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="6" t="s">
         <v>1763</v>
       </c>
@@ -20680,7 +20683,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="732" spans="1:12" s="6" customFormat="1">
+    <row r="732" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="6" t="s">
         <v>1763</v>
       </c>
@@ -20694,7 +20697,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="733" spans="1:12" s="6" customFormat="1">
+    <row r="733" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="6" t="s">
         <v>1763</v>
       </c>
@@ -20708,7 +20711,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="734" spans="1:12" s="6" customFormat="1">
+    <row r="734" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="6" t="s">
         <v>1770</v>
       </c>
@@ -20725,7 +20728,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="735" spans="1:12" s="6" customFormat="1">
+    <row r="735" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="6" t="s">
         <v>1773</v>
       </c>
@@ -20739,7 +20742,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="736" spans="1:12" s="6" customFormat="1">
+    <row r="736" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="6" t="s">
         <v>1775</v>
       </c>
@@ -20753,7 +20756,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="737" spans="1:12">
+    <row r="737" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>1777</v>
       </c>
@@ -20779,7 +20782,7 @@
       <c r="K737" s="7"/>
       <c r="L737" s="7"/>
     </row>
-    <row r="738" spans="1:12" s="6" customFormat="1">
+    <row r="738" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="6" t="s">
         <v>1782</v>
       </c>
@@ -20793,7 +20796,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="739" spans="1:12" s="6" customFormat="1">
+    <row r="739" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="6" t="s">
         <v>1785</v>
       </c>
@@ -20807,7 +20810,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="740" spans="1:12" s="6" customFormat="1">
+    <row r="740" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="6" t="s">
         <v>1788</v>
       </c>
@@ -20821,7 +20824,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="741" spans="1:12" s="6" customFormat="1">
+    <row r="741" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="6" t="s">
         <v>1788</v>
       </c>
@@ -20835,7 +20838,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="742" spans="1:12" s="6" customFormat="1">
+    <row r="742" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="6" t="s">
         <v>1788</v>
       </c>
@@ -20852,7 +20855,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="743" spans="1:12" s="6" customFormat="1">
+    <row r="743" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="6" t="s">
         <v>1793</v>
       </c>
@@ -20869,7 +20872,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="744" spans="1:12" s="6" customFormat="1">
+    <row r="744" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="6" t="s">
         <v>1795</v>
       </c>
@@ -20883,7 +20886,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="745" spans="1:12" s="6" customFormat="1">
+    <row r="745" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="6" t="s">
         <v>1795</v>
       </c>
@@ -20897,7 +20900,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="746" spans="1:12" s="6" customFormat="1">
+    <row r="746" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="6" t="s">
         <v>1799</v>
       </c>
@@ -20911,7 +20914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="747" spans="1:12" s="6" customFormat="1">
+    <row r="747" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="6" t="s">
         <v>1801</v>
       </c>
@@ -20925,7 +20928,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="748" spans="1:12" s="6" customFormat="1">
+    <row r="748" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="6" t="s">
         <v>1801</v>
       </c>
@@ -20939,7 +20942,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="749" spans="1:12" s="6" customFormat="1">
+    <row r="749" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="6" t="s">
         <v>1804</v>
       </c>
@@ -20953,7 +20956,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="750" spans="1:12" s="6" customFormat="1">
+    <row r="750" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="6" t="s">
         <v>1804</v>
       </c>
@@ -20970,7 +20973,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="751" spans="1:12" s="6" customFormat="1">
+    <row r="751" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="6" t="s">
         <v>1808</v>
       </c>
@@ -20987,7 +20990,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="752" spans="1:12" s="6" customFormat="1">
+    <row r="752" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="6" t="s">
         <v>1808</v>
       </c>
@@ -21001,7 +21004,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="753" spans="1:7" s="6" customFormat="1">
+    <row r="753" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="6" t="s">
         <v>1811</v>
       </c>
@@ -21018,7 +21021,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="754" spans="1:7" s="6" customFormat="1">
+    <row r="754" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="6" t="s">
         <v>1811</v>
       </c>
@@ -21029,7 +21032,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="755" spans="1:7" s="6" customFormat="1">
+    <row r="755" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="6" t="s">
         <v>1811</v>
       </c>
@@ -21046,7 +21049,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="756" spans="1:7" s="6" customFormat="1">
+    <row r="756" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="6" t="s">
         <v>1811</v>
       </c>
@@ -21060,7 +21063,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="757" spans="1:7" s="6" customFormat="1">
+    <row r="757" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="6" t="s">
         <v>1818</v>
       </c>
@@ -21074,7 +21077,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="758" spans="1:7" s="6" customFormat="1">
+    <row r="758" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="6" t="s">
         <v>1818</v>
       </c>
@@ -21088,7 +21091,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="759" spans="1:7" s="6" customFormat="1">
+    <row r="759" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="6" t="s">
         <v>1818</v>
       </c>
@@ -21102,7 +21105,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="760" spans="1:7" s="6" customFormat="1">
+    <row r="760" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="6" t="s">
         <v>1823</v>
       </c>
@@ -21116,7 +21119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="761" spans="1:7" s="6" customFormat="1">
+    <row r="761" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="6" t="s">
         <v>1823</v>
       </c>
@@ -21130,7 +21133,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="762" spans="1:7" s="6" customFormat="1">
+    <row r="762" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="6" t="s">
         <v>1827</v>
       </c>
@@ -21153,7 +21156,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="763" spans="1:7" s="6" customFormat="1">
+    <row r="763" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="6" t="s">
         <v>1827</v>
       </c>
@@ -21170,7 +21173,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="764" spans="1:7" s="6" customFormat="1">
+    <row r="764" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="6" t="s">
         <v>1831</v>
       </c>
@@ -21184,7 +21187,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="765" spans="1:7" s="6" customFormat="1">
+    <row r="765" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="6" t="s">
         <v>1831</v>
       </c>
@@ -21201,7 +21204,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="766" spans="1:7" s="6" customFormat="1">
+    <row r="766" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="6" t="s">
         <v>1835</v>
       </c>
@@ -21221,7 +21224,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="767" spans="1:7" s="6" customFormat="1">
+    <row r="767" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="6" t="s">
         <v>1840</v>
       </c>
@@ -21235,7 +21238,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="768" spans="1:7" s="6" customFormat="1">
+    <row r="768" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="6" t="s">
         <v>1840</v>
       </c>
@@ -21249,7 +21252,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="769" spans="1:8" s="6" customFormat="1">
+    <row r="769" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="6" t="s">
         <v>1840</v>
       </c>
@@ -21263,7 +21266,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="770" spans="1:8" s="6" customFormat="1">
+    <row r="770" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="6" t="s">
         <v>1847</v>
       </c>
@@ -21277,7 +21280,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="771" spans="1:8" s="6" customFormat="1">
+    <row r="771" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="6" t="s">
         <v>1847</v>
       </c>
@@ -21291,7 +21294,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="772" spans="1:8" s="6" customFormat="1">
+    <row r="772" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="6" t="s">
         <v>1847</v>
       </c>
@@ -21305,7 +21308,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="773" spans="1:8" s="6" customFormat="1">
+    <row r="773" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="6" t="s">
         <v>1847</v>
       </c>
@@ -21319,7 +21322,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="774" spans="1:8" s="6" customFormat="1">
+    <row r="774" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="6" t="s">
         <v>1847</v>
       </c>
@@ -21333,7 +21336,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="775" spans="1:8" s="6" customFormat="1">
+    <row r="775" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="6" t="s">
         <v>1853</v>
       </c>
@@ -21347,7 +21350,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="776" spans="1:8" s="6" customFormat="1">
+    <row r="776" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="6" t="s">
         <v>1853</v>
       </c>
@@ -21361,7 +21364,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="777" spans="1:8" s="6" customFormat="1">
+    <row r="777" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="6" t="s">
         <v>1858</v>
       </c>
@@ -21378,7 +21381,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="778" spans="1:8" s="6" customFormat="1">
+    <row r="778" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="6" t="s">
         <v>1858</v>
       </c>
@@ -21404,7 +21407,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="779" spans="1:8" s="6" customFormat="1">
+    <row r="779" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="6" t="s">
         <v>1864</v>
       </c>
@@ -21421,7 +21424,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="780" spans="1:8" s="6" customFormat="1">
+    <row r="780" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="6" t="s">
         <v>1864</v>
       </c>
@@ -21435,7 +21438,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="781" spans="1:8" s="6" customFormat="1">
+    <row r="781" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="6" t="s">
         <v>1864</v>
       </c>
@@ -21449,7 +21452,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="782" spans="1:8" s="6" customFormat="1">
+    <row r="782" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="6" t="s">
         <v>1869</v>
       </c>
@@ -21463,7 +21466,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="783" spans="1:8" s="6" customFormat="1">
+    <row r="783" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="6" t="s">
         <v>1869</v>
       </c>
@@ -21480,7 +21483,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="784" spans="1:8" s="6" customFormat="1">
+    <row r="784" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="6" t="s">
         <v>1873</v>
       </c>
@@ -21500,7 +21503,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="785" spans="1:12" s="6" customFormat="1">
+    <row r="785" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="6" t="s">
         <v>1873</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="786" spans="1:12" s="6" customFormat="1">
+    <row r="786" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="6" t="s">
         <v>1873</v>
       </c>
@@ -21534,7 +21537,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="787" spans="1:12" s="6" customFormat="1">
+    <row r="787" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="6" t="s">
         <v>1878</v>
       </c>
@@ -21548,7 +21551,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="788" spans="1:12" s="6" customFormat="1">
+    <row r="788" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="6" t="s">
         <v>1880</v>
       </c>
@@ -21568,7 +21571,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="789" spans="1:12" s="6" customFormat="1">
+    <row r="789" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="6" t="s">
         <v>1883</v>
       </c>
@@ -21585,7 +21588,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="790" spans="1:12" s="6" customFormat="1">
+    <row r="790" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="6" t="s">
         <v>1883</v>
       </c>
@@ -21599,7 +21602,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="791" spans="1:12" s="6" customFormat="1">
+    <row r="791" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="6" t="s">
         <v>1888</v>
       </c>
@@ -21616,7 +21619,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="792" spans="1:12" s="6" customFormat="1">
+    <row r="792" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="6" t="s">
         <v>1891</v>
       </c>
@@ -21630,7 +21633,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="793" spans="1:12" s="6" customFormat="1">
+    <row r="793" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
         <v>1891</v>
       </c>
@@ -21644,7 +21647,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="794" spans="1:12" s="6" customFormat="1">
+    <row r="794" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="6" t="s">
         <v>1894</v>
       </c>
@@ -21661,7 +21664,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="795" spans="1:12" s="6" customFormat="1">
+    <row r="795" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="6" t="s">
         <v>1897</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="796" spans="1:12" s="6" customFormat="1">
+    <row r="796" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="6" t="s">
         <v>1897</v>
       </c>
@@ -21695,7 +21698,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="797" spans="1:12" s="6" customFormat="1">
+    <row r="797" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="6" t="s">
         <v>1901</v>
       </c>
@@ -21715,7 +21718,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="798" spans="1:12" s="6" customFormat="1">
+    <row r="798" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="6" t="s">
         <v>1905</v>
       </c>
@@ -21729,7 +21732,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="799" spans="1:12" s="6" customFormat="1">
+    <row r="799" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="6" t="s">
         <v>1905</v>
       </c>
@@ -21746,7 +21749,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="800" spans="1:12">
+    <row r="800" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>1911</v>
       </c>
@@ -21768,7 +21771,7 @@
       <c r="K800" s="7"/>
       <c r="L800" s="7"/>
     </row>
-    <row r="801" spans="1:12" s="6" customFormat="1">
+    <row r="801" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="6" t="s">
         <v>1913</v>
       </c>
@@ -21785,7 +21788,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="802" spans="1:12" s="6" customFormat="1">
+    <row r="802" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="6" t="s">
         <v>1913</v>
       </c>
@@ -21799,7 +21802,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="803" spans="1:12" s="6" customFormat="1">
+    <row r="803" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="6" t="s">
         <v>1918</v>
       </c>
@@ -21813,7 +21816,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="804" spans="1:12" s="6" customFormat="1">
+    <row r="804" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="6" t="s">
         <v>1921</v>
       </c>
@@ -21827,7 +21830,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="805" spans="1:12" s="6" customFormat="1">
+    <row r="805" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="6" t="s">
         <v>1921</v>
       </c>
@@ -21847,7 +21850,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="806" spans="1:12">
+    <row r="806" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>1926</v>
       </c>
@@ -21871,7 +21874,7 @@
       <c r="K806" s="7"/>
       <c r="L806" s="7"/>
     </row>
-    <row r="807" spans="1:12">
+    <row r="807" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>1926</v>
       </c>
@@ -21901,7 +21904,7 @@
       <c r="K807" s="7"/>
       <c r="L807" s="7"/>
     </row>
-    <row r="808" spans="1:12">
+    <row r="808" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>1926</v>
       </c>
@@ -21927,7 +21930,7 @@
       <c r="K808" s="7"/>
       <c r="L808" s="7"/>
     </row>
-    <row r="809" spans="1:12" s="6" customFormat="1">
+    <row r="809" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="6" t="s">
         <v>1930</v>
       </c>
@@ -21944,7 +21947,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="810" spans="1:12" s="6" customFormat="1">
+    <row r="810" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="6" t="s">
         <v>1932</v>
       </c>
@@ -21958,7 +21961,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="811" spans="1:12" s="6" customFormat="1">
+    <row r="811" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="6" t="s">
         <v>1932</v>
       </c>
@@ -21972,7 +21975,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="812" spans="1:12" s="6" customFormat="1">
+    <row r="812" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="6" t="s">
         <v>1936</v>
       </c>
@@ -21989,7 +21992,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="813" spans="1:12" s="6" customFormat="1">
+    <row r="813" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="6" t="s">
         <v>1936</v>
       </c>
@@ -22003,7 +22006,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="814" spans="1:12" s="6" customFormat="1">
+    <row r="814" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="6" t="s">
         <v>1940</v>
       </c>
@@ -22017,7 +22020,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="815" spans="1:12" s="6" customFormat="1">
+    <row r="815" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="6" t="s">
         <v>1943</v>
       </c>
@@ -22031,7 +22034,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="816" spans="1:12" s="6" customFormat="1">
+    <row r="816" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="6" t="s">
         <v>1946</v>
       </c>
@@ -22045,7 +22048,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="817" spans="1:12" s="6" customFormat="1">
+    <row r="817" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="6" t="s">
         <v>1946</v>
       </c>
@@ -22059,7 +22062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="818" spans="1:12" s="6" customFormat="1">
+    <row r="818" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="6" t="s">
         <v>1946</v>
       </c>
@@ -22073,7 +22076,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="819" spans="1:12" s="6" customFormat="1">
+    <row r="819" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="6" t="s">
         <v>1946</v>
       </c>
@@ -22087,7 +22090,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="820" spans="1:12" s="6" customFormat="1">
+    <row r="820" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="6" t="s">
         <v>1946</v>
       </c>
@@ -22101,7 +22104,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="821" spans="1:12" s="6" customFormat="1">
+    <row r="821" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="6" t="s">
         <v>1954</v>
       </c>
@@ -22118,7 +22121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="822" spans="1:12" s="6" customFormat="1">
+    <row r="822" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="6" t="s">
         <v>1954</v>
       </c>
@@ -22132,7 +22135,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="823" spans="1:12" s="6" customFormat="1">
+    <row r="823" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="6" t="s">
         <v>1959</v>
       </c>
@@ -22146,7 +22149,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="824" spans="1:12" s="6" customFormat="1">
+    <row r="824" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="6" t="s">
         <v>1959</v>
       </c>
@@ -22163,7 +22166,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="825" spans="1:12" s="6" customFormat="1">
+    <row r="825" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="6" t="s">
         <v>1959</v>
       </c>
@@ -22177,7 +22180,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="826" spans="1:12" s="6" customFormat="1">
+    <row r="826" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="6" t="s">
         <v>1959</v>
       </c>
@@ -22200,7 +22203,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="827" spans="1:12" s="6" customFormat="1">
+    <row r="827" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="6" t="s">
         <v>1964</v>
       </c>
@@ -22214,7 +22217,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="828" spans="1:12" s="6" customFormat="1">
+    <row r="828" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="6" t="s">
         <v>1966</v>
       </c>
@@ -22228,7 +22231,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="829" spans="1:12" s="6" customFormat="1">
+    <row r="829" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="6" t="s">
         <v>1968</v>
       </c>
@@ -22248,7 +22251,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="830" spans="1:12" s="6" customFormat="1">
+    <row r="830" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="6" t="s">
         <v>1973</v>
       </c>
@@ -22265,7 +22268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="831" spans="1:12">
+    <row r="831" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="7" t="s">
         <v>1973</v>
       </c>
@@ -22287,7 +22290,7 @@
       <c r="K831" s="7"/>
       <c r="L831" s="7"/>
     </row>
-    <row r="832" spans="1:12" s="6" customFormat="1">
+    <row r="832" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="6" t="s">
         <v>1977</v>
       </c>
@@ -22304,7 +22307,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="833" spans="1:6" s="6" customFormat="1">
+    <row r="833" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="6" t="s">
         <v>1977</v>
       </c>
@@ -22318,7 +22321,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="834" spans="1:6" s="6" customFormat="1">
+    <row r="834" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="6" t="s">
         <v>1977</v>
       </c>
@@ -22332,7 +22335,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="835" spans="1:6" s="6" customFormat="1">
+    <row r="835" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="6" t="s">
         <v>1977</v>
       </c>
@@ -22346,7 +22349,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="836" spans="1:6" s="6" customFormat="1">
+    <row r="836" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="6" t="s">
         <v>1977</v>
       </c>
@@ -22360,7 +22363,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="837" spans="1:6" s="6" customFormat="1">
+    <row r="837" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="6" t="s">
         <v>1986</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="838" spans="1:6" s="6" customFormat="1">
+    <row r="838" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="6" t="s">
         <v>1989</v>
       </c>
@@ -22397,7 +22400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="839" spans="1:6" s="6" customFormat="1">
+    <row r="839" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="6" t="s">
         <v>1989</v>
       </c>
@@ -22414,7 +22417,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="840" spans="1:6" s="6" customFormat="1">
+    <row r="840" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="6" t="s">
         <v>1989</v>
       </c>
@@ -22434,7 +22437,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="841" spans="1:6" s="6" customFormat="1">
+    <row r="841" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="6" t="s">
         <v>1994</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="842" spans="1:6" s="6" customFormat="1">
+    <row r="842" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="6" t="s">
         <v>1994</v>
       </c>
@@ -22462,7 +22465,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="843" spans="1:6" s="6" customFormat="1">
+    <row r="843" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="6" t="s">
         <v>1997</v>
       </c>
@@ -22476,7 +22479,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="844" spans="1:6" s="6" customFormat="1">
+    <row r="844" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="6" t="s">
         <v>1997</v>
       </c>
@@ -22490,7 +22493,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="845" spans="1:6" s="6" customFormat="1">
+    <row r="845" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="6" t="s">
         <v>2001</v>
       </c>
@@ -22504,7 +22507,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="846" spans="1:6" s="6" customFormat="1">
+    <row r="846" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22518,7 +22521,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="847" spans="1:6" s="6" customFormat="1">
+    <row r="847" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22532,7 +22535,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="848" spans="1:6" s="6" customFormat="1">
+    <row r="848" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22546,7 +22549,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="849" spans="1:12" s="6" customFormat="1">
+    <row r="849" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22563,7 +22566,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="850" spans="1:12" s="6" customFormat="1">
+    <row r="850" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22577,7 +22580,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="851" spans="1:12" s="6" customFormat="1">
+    <row r="851" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22591,7 +22594,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="852" spans="1:12" s="6" customFormat="1">
+    <row r="852" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="6" t="s">
         <v>2004</v>
       </c>
@@ -22605,7 +22608,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="853" spans="1:12" s="6" customFormat="1">
+    <row r="853" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="6" t="s">
         <v>2018</v>
       </c>
@@ -22619,7 +22622,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="854" spans="1:12" s="6" customFormat="1">
+    <row r="854" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="6" t="s">
         <v>2018</v>
       </c>
@@ -22633,7 +22636,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="855" spans="1:12" s="6" customFormat="1">
+    <row r="855" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="6" t="s">
         <v>2018</v>
       </c>
@@ -22647,7 +22650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="856" spans="1:12" s="6" customFormat="1">
+    <row r="856" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="6" t="s">
         <v>2018</v>
       </c>
@@ -22664,7 +22667,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="857" spans="1:12" s="6" customFormat="1">
+    <row r="857" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="6" t="s">
         <v>2018</v>
       </c>
@@ -22681,7 +22684,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="858" spans="1:12" s="6" customFormat="1">
+    <row r="858" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="6" t="s">
         <v>2018</v>
       </c>
@@ -22695,7 +22698,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="859" spans="1:12" s="6" customFormat="1">
+    <row r="859" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="6" t="s">
         <v>2026</v>
       </c>
@@ -22712,7 +22715,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="860" spans="1:12" s="6" customFormat="1">
+    <row r="860" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="6" t="s">
         <v>2029</v>
       </c>
@@ -22729,7 +22732,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="861" spans="1:12" s="6" customFormat="1">
+    <row r="861" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="6" t="s">
         <v>2032</v>
       </c>
@@ -22743,7 +22746,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="862" spans="1:12">
+    <row r="862" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>2034</v>
       </c>
@@ -22765,7 +22768,7 @@
       <c r="K862" s="7"/>
       <c r="L862" s="7"/>
     </row>
-    <row r="863" spans="1:12" s="6" customFormat="1">
+    <row r="863" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="6" t="s">
         <v>2036</v>
       </c>
@@ -22785,7 +22788,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="864" spans="1:12" s="6" customFormat="1">
+    <row r="864" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="6" t="s">
         <v>2039</v>
       </c>
@@ -22805,7 +22808,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="865" spans="1:6" s="6" customFormat="1">
+    <row r="865" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="6" t="s">
         <v>2039</v>
       </c>
@@ -22819,7 +22822,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="866" spans="1:6" s="6" customFormat="1">
+    <row r="866" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="6" t="s">
         <v>2044</v>
       </c>
@@ -22836,7 +22839,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="867" spans="1:6" s="6" customFormat="1">
+    <row r="867" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="6" t="s">
         <v>2047</v>
       </c>
@@ -22850,7 +22853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="868" spans="1:6" s="6" customFormat="1">
+    <row r="868" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="6" t="s">
         <v>2047</v>
       </c>
@@ -22870,7 +22873,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="869" spans="1:6" s="6" customFormat="1">
+    <row r="869" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="6" t="s">
         <v>2047</v>
       </c>
@@ -22884,7 +22887,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="870" spans="1:6" s="6" customFormat="1">
+    <row r="870" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="6" t="s">
         <v>2053</v>
       </c>
@@ -22898,7 +22901,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="871" spans="1:6" s="6" customFormat="1">
+    <row r="871" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="6" t="s">
         <v>2055</v>
       </c>
@@ -22915,7 +22918,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="872" spans="1:6" s="6" customFormat="1">
+    <row r="872" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="6" t="s">
         <v>2055</v>
       </c>
@@ -22932,7 +22935,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="873" spans="1:6" s="6" customFormat="1">
+    <row r="873" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="6" t="s">
         <v>2055</v>
       </c>
@@ -22946,7 +22949,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="874" spans="1:6" s="6" customFormat="1">
+    <row r="874" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="6" t="s">
         <v>2055</v>
       </c>
@@ -22960,7 +22963,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="875" spans="1:6" s="6" customFormat="1">
+    <row r="875" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="6" t="s">
         <v>2062</v>
       </c>
@@ -22980,7 +22983,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="876" spans="1:6" s="6" customFormat="1">
+    <row r="876" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="6" t="s">
         <v>2062</v>
       </c>
@@ -22997,7 +23000,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="877" spans="1:6" s="6" customFormat="1">
+    <row r="877" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="6" t="s">
         <v>2067</v>
       </c>
@@ -23014,7 +23017,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="878" spans="1:6" s="6" customFormat="1">
+    <row r="878" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="6" t="s">
         <v>2209</v>
       </c>
@@ -23034,7 +23037,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="879" spans="1:6" s="6" customFormat="1">
+    <row r="879" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="6" t="s">
         <v>2070</v>
       </c>
@@ -23048,7 +23051,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="880" spans="1:6" s="6" customFormat="1">
+    <row r="880" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="6" t="s">
         <v>2070</v>
       </c>
@@ -23065,7 +23068,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="881" spans="1:7" s="6" customFormat="1">
+    <row r="881" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="6" t="s">
         <v>2070</v>
       </c>
@@ -23085,7 +23088,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="882" spans="1:7" s="6" customFormat="1">
+    <row r="882" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
         <v>2070</v>
       </c>
@@ -23099,7 +23102,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="883" spans="1:7" s="6" customFormat="1">
+    <row r="883" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="6" t="s">
         <v>2077</v>
       </c>
@@ -23113,7 +23116,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="884" spans="1:7" s="6" customFormat="1">
+    <row r="884" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="6" t="s">
         <v>2077</v>
       </c>
@@ -23130,7 +23133,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="885" spans="1:7" s="6" customFormat="1">
+    <row r="885" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="6" t="s">
         <v>2083</v>
       </c>
@@ -23147,7 +23150,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="886" spans="1:7" s="6" customFormat="1">
+    <row r="886" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="6" t="s">
         <v>2086</v>
       </c>
@@ -23161,7 +23164,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="887" spans="1:7" s="6" customFormat="1">
+    <row r="887" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="6" t="s">
         <v>2086</v>
       </c>
@@ -23175,7 +23178,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="888" spans="1:7" s="6" customFormat="1">
+    <row r="888" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="6" t="s">
         <v>2086</v>
       </c>
@@ -23195,7 +23198,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="889" spans="1:7" s="6" customFormat="1">
+    <row r="889" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="6" t="s">
         <v>2090</v>
       </c>
@@ -23209,7 +23212,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="890" spans="1:7" s="6" customFormat="1">
+    <row r="890" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="6" t="s">
         <v>2093</v>
       </c>
@@ -23223,7 +23226,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="891" spans="1:7" s="6" customFormat="1">
+    <row r="891" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="6" t="s">
         <v>2095</v>
       </c>
@@ -23240,7 +23243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="892" spans="1:7" s="6" customFormat="1">
+    <row r="892" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="6" t="s">
         <v>2097</v>
       </c>
@@ -23260,7 +23263,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="893" spans="1:7" s="6" customFormat="1">
+    <row r="893" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="6" t="s">
         <v>2100</v>
       </c>
@@ -23280,7 +23283,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="894" spans="1:7" s="6" customFormat="1">
+    <row r="894" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="6" t="s">
         <v>2103</v>
       </c>
@@ -23294,7 +23297,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="895" spans="1:7" s="6" customFormat="1">
+    <row r="895" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="6" t="s">
         <v>2103</v>
       </c>
@@ -23317,7 +23320,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="896" spans="1:7" s="6" customFormat="1">
+    <row r="896" spans="1:7" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="6" t="s">
         <v>2109</v>
       </c>
@@ -23331,7 +23334,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="897" spans="1:6" s="6" customFormat="1">
+    <row r="897" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="6" t="s">
         <v>2109</v>
       </c>
@@ -23345,7 +23348,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="898" spans="1:6" s="6" customFormat="1">
+    <row r="898" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="6" t="s">
         <v>2114</v>
       </c>
@@ -23359,7 +23362,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="899" spans="1:6" s="8" customFormat="1">
+    <row r="899" spans="1:6" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="8" t="s">
         <v>2114</v>
       </c>
@@ -23379,7 +23382,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="900" spans="1:6" s="6" customFormat="1">
+    <row r="900" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="6" t="s">
         <v>2117</v>
       </c>
@@ -23393,7 +23396,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="901" spans="1:6" s="6" customFormat="1">
+    <row r="901" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="6" t="s">
         <v>2117</v>
       </c>
@@ -23407,7 +23410,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="902" spans="1:6" s="6" customFormat="1">
+    <row r="902" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="6" t="s">
         <v>2117</v>
       </c>
@@ -23424,7 +23427,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="903" spans="1:6" s="6" customFormat="1">
+    <row r="903" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="6" t="s">
         <v>2123</v>
       </c>
@@ -23441,7 +23444,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="904" spans="1:6" s="6" customFormat="1">
+    <row r="904" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="6" t="s">
         <v>2123</v>
       </c>
@@ -23455,7 +23458,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="905" spans="1:6" s="6" customFormat="1">
+    <row r="905" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="6" t="s">
         <v>2126</v>
       </c>
@@ -23469,7 +23472,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="906" spans="1:6" s="6" customFormat="1">
+    <row r="906" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="6" t="s">
         <v>2128</v>
       </c>
@@ -23486,7 +23489,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="907" spans="1:6" s="6" customFormat="1">
+    <row r="907" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="6" t="s">
         <v>2128</v>
       </c>
@@ -23503,7 +23506,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="908" spans="1:6" s="6" customFormat="1">
+    <row r="908" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="6" t="s">
         <v>2128</v>
       </c>
@@ -23520,7 +23523,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="909" spans="1:6" s="6" customFormat="1">
+    <row r="909" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="6" t="s">
         <v>2128</v>
       </c>
@@ -23534,7 +23537,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="910" spans="1:6" s="6" customFormat="1">
+    <row r="910" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="6" t="s">
         <v>2138</v>
       </c>
@@ -23551,7 +23554,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="911" spans="1:6" s="6" customFormat="1">
+    <row r="911" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="6" t="s">
         <v>2142</v>
       </c>
@@ -23568,7 +23571,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="912" spans="1:6" s="6" customFormat="1">
+    <row r="912" spans="1:6" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="6" t="s">
         <v>2144</v>
       </c>
@@ -23585,7 +23588,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="913" spans="1:8" s="6" customFormat="1">
+    <row r="913" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="6" t="s">
         <v>2148</v>
       </c>
@@ -23599,7 +23602,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="914" spans="1:8" s="6" customFormat="1">
+    <row r="914" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="6" t="s">
         <v>2151</v>
       </c>
@@ -23616,7 +23619,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="915" spans="1:8" s="6" customFormat="1">
+    <row r="915" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="6" t="s">
         <v>2151</v>
       </c>
@@ -23639,7 +23642,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="916" spans="1:8" s="6" customFormat="1">
+    <row r="916" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="6" t="s">
         <v>2151</v>
       </c>
@@ -23653,7 +23656,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="917" spans="1:8" s="6" customFormat="1">
+    <row r="917" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="6" t="s">
         <v>2157</v>
       </c>
@@ -23667,7 +23670,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="918" spans="1:8" s="6" customFormat="1">
+    <row r="918" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="6" t="s">
         <v>2159</v>
       </c>
@@ -23681,7 +23684,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="919" spans="1:8" s="6" customFormat="1">
+    <row r="919" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="6" t="s">
         <v>2161</v>
       </c>
@@ -23698,7 +23701,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="920" spans="1:8" s="6" customFormat="1">
+    <row r="920" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="6" t="s">
         <v>2161</v>
       </c>
@@ -23715,7 +23718,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="921" spans="1:8" s="6" customFormat="1">
+    <row r="921" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="6" t="s">
         <v>2161</v>
       </c>
@@ -23729,7 +23732,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="922" spans="1:8" s="6" customFormat="1">
+    <row r="922" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="6" t="s">
         <v>2161</v>
       </c>
@@ -23743,7 +23746,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="923" spans="1:8" s="6" customFormat="1">
+    <row r="923" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="6" t="s">
         <v>2169</v>
       </c>
@@ -23760,7 +23763,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="924" spans="1:8" s="6" customFormat="1">
+    <row r="924" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="6" t="s">
         <v>2172</v>
       </c>
@@ -23774,7 +23777,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="925" spans="1:8" s="6" customFormat="1">
+    <row r="925" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="6" t="s">
         <v>2174</v>
       </c>
@@ -23797,7 +23800,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="926" spans="1:8" s="6" customFormat="1">
+    <row r="926" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="6" t="s">
         <v>2174</v>
       </c>
@@ -23814,7 +23817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="927" spans="1:8" s="6" customFormat="1">
+    <row r="927" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="6" t="s">
         <v>2178</v>
       </c>
@@ -23840,7 +23843,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="928" spans="1:8" s="6" customFormat="1">
+    <row r="928" spans="1:8" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="6" t="s">
         <v>2215</v>
       </c>
@@ -23857,7 +23860,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="929" spans="1:12" s="6" customFormat="1">
+    <row r="929" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="6" t="s">
         <v>2218</v>
       </c>
@@ -23883,7 +23886,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="930" spans="1:12" s="6" customFormat="1">
+    <row r="930" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="6" t="s">
         <v>2223</v>
       </c>
@@ -23900,7 +23903,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="931" spans="1:12" s="6" customFormat="1">
+    <row r="931" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="6" t="s">
         <v>2182</v>
       </c>
@@ -23914,7 +23917,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="932" spans="1:12" s="6" customFormat="1">
+    <row r="932" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="6" t="s">
         <v>2184</v>
       </c>
@@ -23931,7 +23934,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="933" spans="1:12" s="6" customFormat="1">
+    <row r="933" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="6" t="s">
         <v>2187</v>
       </c>
@@ -23945,7 +23948,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="934" spans="1:12" s="6" customFormat="1">
+    <row r="934" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="6" t="s">
         <v>2190</v>
       </c>
@@ -23962,7 +23965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="935" spans="1:12" s="6" customFormat="1">
+    <row r="935" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="6" t="s">
         <v>2193</v>
       </c>
@@ -23982,7 +23985,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="936" spans="1:12" s="6" customFormat="1">
+    <row r="936" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="6" t="s">
         <v>2193</v>
       </c>
@@ -24005,7 +24008,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="937" spans="1:12">
+    <row r="937" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>2197</v>
       </c>
@@ -24031,7 +24034,7 @@
       <c r="K937" s="7"/>
       <c r="L937" s="7"/>
     </row>
-    <row r="938" spans="1:12">
+    <row r="938" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>2200</v>
       </c>
@@ -24055,7 +24058,7 @@
       <c r="K938" s="7"/>
       <c r="L938" s="7"/>
     </row>
-    <row r="939" spans="1:12" s="6" customFormat="1">
+    <row r="939" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="6" t="s">
         <v>2202</v>
       </c>
@@ -24078,7 +24081,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="940" spans="1:12" s="6" customFormat="1">
+    <row r="940" spans="1:12" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="6" t="s">
         <v>2205</v>
       </c>
